--- a/planning/data_plan.xlsx
+++ b/planning/data_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slin2\Desktop\23S1_WDC_UG070_world-execute-me-\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\web-data-2023\23S1_WDC_UG070_world-execute-me-\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D406E0-2030-47DF-B59D-806C90EB14EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89952A16-97AC-47CD-9020-2B1077403669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,10 +239,6 @@
 on sign up</t>
   </si>
   <si>
-    <t>Users signing up will be required to accept/decline terms of service
-??? Should this just be part of the sign up process???</t>
-  </si>
-  <si>
     <t>Tickbox displayed on terms of service page after 
 signing up</t>
   </si>
@@ -399,9 +395,6 @@
 "Email sent successfully." / "Failed to send email"</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>JSON formatted AJAX request containing new profile
  information: [form entries]
 {
@@ -410,6 +403,12 @@
 "email" : "[email]",
 "phone" : "[phone]"
 }</t>
+  </si>
+  <si>
+    <t>Users signing up will be required to accept/decline terms of service</t>
+  </si>
+  <si>
+    <t>POST request/users/:userId</t>
   </si>
 </sst>
 </file>
@@ -466,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -531,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -554,9 +553,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -564,6 +560,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,19 +789,19 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="173.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="201.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="173.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="201.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -846,7 +848,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="132">
+    <row r="2" spans="1:26" ht="127.5">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -856,13 +858,13 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -890,7 +892,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="66">
+    <row r="3" spans="1:26" ht="63.75">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -900,13 +902,13 @@
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -932,7 +934,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="105.6">
+    <row r="4" spans="1:26" ht="102">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -942,7 +944,7 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -974,7 +976,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="105.6">
+    <row r="5" spans="1:26" ht="102">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -984,7 +986,7 @@
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1016,7 +1018,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="145.19999999999999">
+    <row r="6" spans="1:26" ht="140.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1026,7 +1028,7 @@
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1058,7 +1060,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="92.4">
+    <row r="7" spans="1:26" ht="89.25">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1068,13 +1070,13 @@
       <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1100,27 +1102,27 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="79.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:26" ht="76.5">
+      <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1142,27 +1144,27 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="105.6">
+    <row r="9" spans="1:26" ht="102">
       <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1184,27 +1186,27 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="105.6">
+    <row r="10" spans="1:26" ht="102">
       <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1226,27 +1228,27 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="26.4">
+    <row r="11" spans="1:26" ht="25.5">
       <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1268,27 +1270,27 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="105.6">
+    <row r="12" spans="1:26" ht="102">
       <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1310,27 +1312,27 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="92.4">
+    <row r="13" spans="1:26" ht="89.25">
       <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
